--- a/Financial Modelling Prep Library/Company Financial Data/BBBY/annual/cash_flow_statements.xlsx
+++ b/Financial Modelling Prep Library/Company Financial Data/BBBY/annual/cash_flow_statements.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="209">
   <si>
     <t>date</t>
   </si>
@@ -139,9 +139,6 @@
     <t>index</t>
   </si>
   <si>
-    <t>BBBY-FY-1992</t>
-  </si>
-  <si>
     <t>BBBY-FY-1993</t>
   </si>
   <si>
@@ -241,9 +238,6 @@
     <t>0000886158</t>
   </si>
   <si>
-    <t>1992-02-29</t>
-  </si>
-  <si>
     <t>1993-02-28</t>
   </si>
   <si>
@@ -334,9 +328,6 @@
     <t>2022-04-21</t>
   </si>
   <si>
-    <t>1992-02-28 19:00:00</t>
-  </si>
-  <si>
     <t>1993-02-27 19:00:00</t>
   </si>
   <si>
@@ -425,9 +416,6 @@
   </si>
   <si>
     <t>2022-04-21 16:44:19</t>
-  </si>
-  <si>
-    <t>1992</t>
   </si>
   <si>
     <t>1993</t>
@@ -1027,7 +1015,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO32"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1163,49 +1151,49 @@
         <v>41</v>
       </c>
       <c r="B2" s="2">
-        <v>33663</v>
+        <v>34028</v>
       </c>
       <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
         <v>72</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>73</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>74</v>
       </c>
-      <c r="F2" t="s">
-        <v>75</v>
-      </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J2">
-        <v>12000000</v>
+        <v>16000000</v>
       </c>
       <c r="K2">
-        <v>1800000</v>
+        <v>2600000</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>-1700000</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-14600000</v>
+        <v>6900000</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>-15400000</v>
+        <v>-2500000</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1214,13 +1202,13 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>6500000</v>
+        <v>1600000</v>
       </c>
       <c r="T2">
-        <v>5700000</v>
+        <v>25400000</v>
       </c>
       <c r="U2">
-        <v>-5900000</v>
+        <v>-10400000</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1235,13 +1223,13 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-5900000</v>
+        <v>-10400000</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>35800000</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1250,31 +1238,31 @@
         <v>0</v>
       </c>
       <c r="AE2">
+        <v>-41300000</v>
+      </c>
+      <c r="AF2">
+        <v>-5500000</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>-5500000</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
         <v>600000</v>
       </c>
-      <c r="AF2">
-        <v>600000</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>600000</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>100000</v>
-      </c>
       <c r="AK2">
-        <v>5700000</v>
+        <v>25400000</v>
       </c>
       <c r="AL2">
-        <v>-5900000</v>
+        <v>-10400000</v>
       </c>
       <c r="AM2">
-        <v>-200000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -1282,49 +1270,49 @@
         <v>42</v>
       </c>
       <c r="B3" s="2">
-        <v>34028</v>
+        <v>34393</v>
       </c>
       <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
         <v>72</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>73</v>
       </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J3">
-        <v>16000000</v>
+        <v>21900000</v>
       </c>
       <c r="K3">
-        <v>2600000</v>
+        <v>4200000</v>
       </c>
       <c r="L3">
-        <v>-1700000</v>
+        <v>-1400000</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6900000</v>
+        <v>-26700000</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>-2500000</v>
+        <v>-31900000</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -1333,13 +1321,13 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>1600000</v>
+        <v>200000</v>
       </c>
       <c r="T3">
-        <v>25400000</v>
+        <v>-1800000</v>
       </c>
       <c r="U3">
-        <v>-10400000</v>
+        <v>-19700000</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1354,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-10400000</v>
+        <v>-19700000</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>35800000</v>
+        <v>800000</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1369,31 +1357,31 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>-41300000</v>
+        <v>13300000</v>
       </c>
       <c r="AF3">
-        <v>-5500000</v>
+        <v>14100000</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>-5500000</v>
+        <v>14100000</v>
       </c>
       <c r="AI3">
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>600000</v>
+        <v>10100000</v>
       </c>
       <c r="AK3">
-        <v>25400000</v>
+        <v>-1800000</v>
       </c>
       <c r="AL3">
-        <v>-10400000</v>
+        <v>-19700000</v>
       </c>
       <c r="AM3">
-        <v>15000000</v>
+        <v>-21500000</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -1401,49 +1389,49 @@
         <v>43</v>
       </c>
       <c r="B4" s="2">
-        <v>34393</v>
+        <v>34758</v>
       </c>
       <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
         <v>72</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>73</v>
       </c>
-      <c r="E4" t="s">
-        <v>74</v>
-      </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J4">
-        <v>21900000</v>
+        <v>30000000</v>
       </c>
       <c r="K4">
-        <v>4200000</v>
+        <v>7200000</v>
       </c>
       <c r="L4">
-        <v>-1400000</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-26700000</v>
+        <v>-14000000</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>-31900000</v>
+        <v>-33400000</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -1452,13 +1440,13 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>-1800000</v>
+        <v>23200000</v>
       </c>
       <c r="U4">
-        <v>-19700000</v>
+        <v>-24500000</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1473,13 +1461,13 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-19700000</v>
+        <v>-24500000</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>800000</v>
+        <v>1600000</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1488,31 +1476,31 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>13300000</v>
+        <v>3500000</v>
       </c>
       <c r="AF4">
-        <v>14100000</v>
+        <v>5100000</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>14100000</v>
+        <v>5100000</v>
       </c>
       <c r="AI4">
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>10100000</v>
+        <v>2700000</v>
       </c>
       <c r="AK4">
-        <v>-1800000</v>
+        <v>23200000</v>
       </c>
       <c r="AL4">
-        <v>-19700000</v>
+        <v>-24500000</v>
       </c>
       <c r="AM4">
-        <v>-21500000</v>
+        <v>-1300000</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1520,34 +1508,34 @@
         <v>44</v>
       </c>
       <c r="B5" s="2">
-        <v>34758</v>
+        <v>35124</v>
       </c>
       <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
         <v>72</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>73</v>
       </c>
-      <c r="E5" t="s">
-        <v>74</v>
-      </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J5">
-        <v>30000000</v>
+        <v>39500000</v>
       </c>
       <c r="K5">
-        <v>7200000</v>
+        <v>9900000</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1556,13 +1544,13 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-14000000</v>
+        <v>-12500000</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>-33400000</v>
+        <v>-40000000</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1571,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="T5">
-        <v>23200000</v>
+        <v>37100000</v>
       </c>
       <c r="U5">
         <v>-24500000</v>
@@ -1598,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>1600000</v>
+        <v>3100000</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1607,31 +1595,31 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>3500000</v>
+        <v>-11900000</v>
       </c>
       <c r="AF5">
-        <v>5100000</v>
+        <v>-8800000</v>
       </c>
       <c r="AG5">
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>5100000</v>
+        <v>-8800000</v>
       </c>
       <c r="AI5">
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>2700000</v>
+        <v>6500000</v>
       </c>
       <c r="AK5">
-        <v>23200000</v>
+        <v>37100000</v>
       </c>
       <c r="AL5">
         <v>-24500000</v>
       </c>
       <c r="AM5">
-        <v>-1300000</v>
+        <v>12600000</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -1639,34 +1627,34 @@
         <v>45</v>
       </c>
       <c r="B6" s="2">
-        <v>35124</v>
+        <v>35490</v>
       </c>
       <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
         <v>72</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>73</v>
       </c>
-      <c r="E6" t="s">
-        <v>74</v>
-      </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J6">
-        <v>39500000</v>
+        <v>55000000</v>
       </c>
       <c r="K6">
-        <v>9900000</v>
+        <v>13400000</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1675,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>-12500000</v>
+        <v>-7700000</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>-40000000</v>
+        <v>-38800000</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1690,13 +1678,13 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>37100000</v>
+        <v>60700000</v>
       </c>
       <c r="U6">
-        <v>-24500000</v>
+        <v>-35100000</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1711,13 +1699,13 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-24500000</v>
+        <v>-35100000</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>3100000</v>
+        <v>7900000</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1726,31 +1714,31 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>-11900000</v>
+        <v>-5000000</v>
       </c>
       <c r="AF6">
-        <v>-8800000</v>
+        <v>2900000</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>-8800000</v>
+        <v>2900000</v>
       </c>
       <c r="AI6">
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>6500000</v>
+        <v>10300000</v>
       </c>
       <c r="AK6">
-        <v>37100000</v>
+        <v>60700000</v>
       </c>
       <c r="AL6">
-        <v>-24500000</v>
+        <v>-35100000</v>
       </c>
       <c r="AM6">
-        <v>12600000</v>
+        <v>25600000</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1758,49 +1746,49 @@
         <v>46</v>
       </c>
       <c r="B7" s="2">
-        <v>35490</v>
+        <v>35854</v>
       </c>
       <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
         <v>72</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>73</v>
       </c>
-      <c r="E7" t="s">
-        <v>74</v>
-      </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J7">
-        <v>55000000</v>
+        <v>73100000</v>
       </c>
       <c r="K7">
-        <v>13400000</v>
+        <v>18200000</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>-6300000</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>-7700000</v>
+        <v>-37100000</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>-38800000</v>
+        <v>-83200000</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1812,10 +1800,10 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>60700000</v>
+        <v>47900000</v>
       </c>
       <c r="U7">
-        <v>-35100000</v>
+        <v>-41300000</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1830,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-35100000</v>
+        <v>-41300000</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1845,31 +1833,31 @@
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>-5000000</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>2900000</v>
+        <v>7900000</v>
       </c>
       <c r="AG7">
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>2900000</v>
+        <v>7900000</v>
       </c>
       <c r="AI7">
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>10300000</v>
+        <v>38800000</v>
       </c>
       <c r="AK7">
-        <v>60700000</v>
+        <v>47900000</v>
       </c>
       <c r="AL7">
-        <v>-35100000</v>
+        <v>-41300000</v>
       </c>
       <c r="AM7">
-        <v>25600000</v>
+        <v>6600000</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1877,49 +1865,49 @@
         <v>47</v>
       </c>
       <c r="B8" s="2">
-        <v>35854</v>
+        <v>36218</v>
       </c>
       <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
         <v>72</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>73</v>
       </c>
-      <c r="E8" t="s">
-        <v>74</v>
-      </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J8">
-        <v>73100000</v>
+        <v>97300000</v>
       </c>
       <c r="K8">
-        <v>18200000</v>
+        <v>23200000</v>
       </c>
       <c r="L8">
-        <v>-6300000</v>
+        <v>-5200000</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>-37100000</v>
+        <v>-34300000</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>-83200000</v>
+        <v>-90000000</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1931,10 +1919,10 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>47900000</v>
+        <v>81000000</v>
       </c>
       <c r="U8">
-        <v>-41300000</v>
+        <v>-62300000</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1949,13 +1937,13 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-41300000</v>
+        <v>-62300000</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>7900000</v>
+        <v>18300000</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -1967,28 +1955,28 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>7900000</v>
+        <v>18300000</v>
       </c>
       <c r="AG8">
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>7900000</v>
+        <v>18300000</v>
       </c>
       <c r="AI8">
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>38800000</v>
+        <v>53300000</v>
       </c>
       <c r="AK8">
-        <v>47900000</v>
+        <v>81000000</v>
       </c>
       <c r="AL8">
-        <v>-41300000</v>
+        <v>-62300000</v>
       </c>
       <c r="AM8">
-        <v>6600000</v>
+        <v>18700000</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1996,49 +1984,49 @@
         <v>48</v>
       </c>
       <c r="B9" s="2">
-        <v>36218</v>
+        <v>36582</v>
       </c>
       <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
         <v>72</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>73</v>
       </c>
-      <c r="E9" t="s">
-        <v>74</v>
-      </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J9">
-        <v>97300000</v>
+        <v>131229000</v>
       </c>
       <c r="K9">
-        <v>23200000</v>
+        <v>31625000</v>
       </c>
       <c r="L9">
-        <v>-5200000</v>
+        <v>-8197000</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>-34300000</v>
+        <v>-27653000</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>-90000000</v>
+        <v>-110096000</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -2047,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>8932000</v>
       </c>
       <c r="T9">
-        <v>81000000</v>
+        <v>135936000</v>
       </c>
       <c r="U9">
-        <v>-62300000</v>
+        <v>-90098000</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -2068,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-62300000</v>
+        <v>-90098000</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>18300000</v>
+        <v>7797000</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -2086,28 +2074,34 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>18300000</v>
+        <v>7797000</v>
       </c>
       <c r="AG9">
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>18300000</v>
+        <v>53635000</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>144031000</v>
       </c>
       <c r="AJ9">
-        <v>53300000</v>
+        <v>90396000</v>
       </c>
       <c r="AK9">
-        <v>81000000</v>
+        <v>135936000</v>
       </c>
       <c r="AL9">
-        <v>-62300000</v>
+        <v>-90098000</v>
       </c>
       <c r="AM9">
-        <v>18700000</v>
+        <v>45838000</v>
+      </c>
+      <c r="AN9" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO9" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -2115,49 +2109,49 @@
         <v>49</v>
       </c>
       <c r="B10" s="2">
-        <v>36582</v>
+        <v>36953</v>
       </c>
       <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
         <v>72</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>73</v>
       </c>
-      <c r="E10" t="s">
-        <v>74</v>
-      </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J10">
-        <v>131229000</v>
+        <v>171922000</v>
       </c>
       <c r="K10">
-        <v>31625000</v>
+        <v>46650000</v>
       </c>
       <c r="L10">
-        <v>-8197000</v>
+        <v>-3939000</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>-27653000</v>
+        <v>-64992000</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>-110096000</v>
+        <v>-136271000</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -2166,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>8932000</v>
+        <v>48295000</v>
       </c>
       <c r="T10">
-        <v>135936000</v>
+        <v>197936000</v>
       </c>
       <c r="U10">
-        <v>-90098000</v>
+        <v>-140395000</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -2187,13 +2181,13 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-90098000</v>
+        <v>-140395000</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>7797000</v>
+        <v>37756000</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -2205,34 +2199,34 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>7797000</v>
+        <v>37756000</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>53635000</v>
+        <v>95297000</v>
       </c>
       <c r="AI10">
+        <v>239328000</v>
+      </c>
+      <c r="AJ10">
         <v>144031000</v>
       </c>
-      <c r="AJ10">
-        <v>90396000</v>
-      </c>
       <c r="AK10">
-        <v>135936000</v>
+        <v>197936000</v>
       </c>
       <c r="AL10">
-        <v>-90098000</v>
+        <v>-140395000</v>
       </c>
       <c r="AM10">
-        <v>45838000</v>
+        <v>57541000</v>
       </c>
       <c r="AN10" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AO10" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -2240,49 +2234,49 @@
         <v>50</v>
       </c>
       <c r="B11" s="2">
-        <v>36953</v>
+        <v>37317</v>
       </c>
       <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
         <v>72</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>73</v>
       </c>
-      <c r="E11" t="s">
-        <v>74</v>
-      </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J11">
-        <v>171922000</v>
+        <v>219599000</v>
       </c>
       <c r="K11">
-        <v>46650000</v>
+        <v>62547000</v>
       </c>
       <c r="L11">
-        <v>-3939000</v>
+        <v>1733000</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>-64992000</v>
+        <v>22097000</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>-136271000</v>
+        <v>-147268000</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -2291,19 +2285,19 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>48295000</v>
+        <v>31980000</v>
       </c>
       <c r="T11">
-        <v>197936000</v>
+        <v>337956000</v>
       </c>
       <c r="U11">
-        <v>-140395000</v>
+        <v>-121632000</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>-51909000</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -2312,13 +2306,13 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-140395000</v>
+        <v>-173541000</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>37756000</v>
+        <v>25753000</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -2330,34 +2324,28 @@
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>37756000</v>
+        <v>25753000</v>
       </c>
       <c r="AG11">
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>95297000</v>
+        <v>190168000</v>
       </c>
       <c r="AI11">
+        <v>429496000</v>
+      </c>
+      <c r="AJ11">
         <v>239328000</v>
       </c>
-      <c r="AJ11">
-        <v>144031000</v>
-      </c>
       <c r="AK11">
-        <v>197936000</v>
+        <v>337956000</v>
       </c>
       <c r="AL11">
-        <v>-140395000</v>
+        <v>-121632000</v>
       </c>
       <c r="AM11">
-        <v>57541000</v>
-      </c>
-      <c r="AN11" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AO11" s="3" t="s">
-        <v>192</v>
+        <v>216324000</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -2365,49 +2353,49 @@
         <v>51</v>
       </c>
       <c r="B12" s="2">
-        <v>37317</v>
+        <v>37681</v>
       </c>
       <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
         <v>72</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>73</v>
       </c>
-      <c r="E12" t="s">
-        <v>74</v>
-      </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J12">
-        <v>219599000</v>
+        <v>302179000</v>
       </c>
       <c r="K12">
-        <v>62547000</v>
+        <v>75810000</v>
       </c>
       <c r="L12">
-        <v>1733000</v>
+        <v>-13291000</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>22097000</v>
+        <v>23443000</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>-147268000</v>
+        <v>-145789000</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -2416,34 +2404,34 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>31980000</v>
+        <v>31176000</v>
       </c>
       <c r="T12">
-        <v>337956000</v>
+        <v>419317000</v>
       </c>
       <c r="U12">
-        <v>-121632000</v>
+        <v>-135254000</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>-24097000</v>
       </c>
       <c r="W12">
-        <v>-51909000</v>
+        <v>-368008000</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>170000000</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-173541000</v>
+        <v>-357359000</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>25753000</v>
+        <v>24216000</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -2455,28 +2443,34 @@
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>25753000</v>
+        <v>24216000</v>
       </c>
       <c r="AG12">
         <v>0</v>
       </c>
       <c r="AH12">
-        <v>190168000</v>
+        <v>86174000</v>
       </c>
       <c r="AI12">
+        <v>515670000</v>
+      </c>
+      <c r="AJ12">
         <v>429496000</v>
       </c>
-      <c r="AJ12">
-        <v>239328000</v>
-      </c>
       <c r="AK12">
-        <v>337956000</v>
+        <v>419317000</v>
       </c>
       <c r="AL12">
-        <v>-121632000</v>
+        <v>-135254000</v>
       </c>
       <c r="AM12">
-        <v>216324000</v>
+        <v>284063000</v>
+      </c>
+      <c r="AN12" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AO12" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -2484,124 +2478,124 @@
         <v>52</v>
       </c>
       <c r="B13" s="2">
-        <v>37681</v>
+        <v>38045</v>
       </c>
       <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
         <v>72</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>73</v>
       </c>
-      <c r="E13" t="s">
-        <v>74</v>
-      </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I13" t="s">
+        <v>164</v>
+      </c>
+      <c r="J13">
+        <v>399470000</v>
+      </c>
+      <c r="K13">
+        <v>85830000</v>
+      </c>
+      <c r="L13">
+        <v>-3061000</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1371000</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>-27058000</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>64832000</v>
+      </c>
+      <c r="T13">
+        <v>548442000</v>
+      </c>
+      <c r="U13">
+        <v>-112999000</v>
+      </c>
+      <c r="V13">
+        <v>-175487000</v>
+      </c>
+      <c r="W13">
+        <v>-361013000</v>
+      </c>
+      <c r="X13">
+        <v>357020000</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>-292479000</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>74597000</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>-21215000</v>
+      </c>
+      <c r="AF13">
+        <v>53382000</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>309345000</v>
+      </c>
+      <c r="AI13">
+        <v>825015000</v>
+      </c>
+      <c r="AJ13">
+        <v>515670000</v>
+      </c>
+      <c r="AK13">
+        <v>548442000</v>
+      </c>
+      <c r="AL13">
+        <v>-112999000</v>
+      </c>
+      <c r="AM13">
+        <v>435443000</v>
+      </c>
+      <c r="AN13" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="J13">
-        <v>302179000</v>
-      </c>
-      <c r="K13">
-        <v>75810000</v>
-      </c>
-      <c r="L13">
-        <v>-13291000</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>23443000</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>-145789000</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>31176000</v>
-      </c>
-      <c r="T13">
-        <v>419317000</v>
-      </c>
-      <c r="U13">
-        <v>-135254000</v>
-      </c>
-      <c r="V13">
-        <v>-24097000</v>
-      </c>
-      <c r="W13">
-        <v>-368008000</v>
-      </c>
-      <c r="X13">
-        <v>170000000</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>-357359000</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>24216000</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>24216000</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>86174000</v>
-      </c>
-      <c r="AI13">
-        <v>515670000</v>
-      </c>
-      <c r="AJ13">
-        <v>429496000</v>
-      </c>
-      <c r="AK13">
-        <v>419317000</v>
-      </c>
-      <c r="AL13">
-        <v>-135254000</v>
-      </c>
-      <c r="AM13">
-        <v>284063000</v>
-      </c>
-      <c r="AN13" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="AO13" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -2609,49 +2603,49 @@
         <v>53</v>
       </c>
       <c r="B14" s="2">
-        <v>38045</v>
+        <v>38409</v>
       </c>
       <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
         <v>72</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>73</v>
       </c>
-      <c r="E14" t="s">
-        <v>74</v>
-      </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I14" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J14">
-        <v>399470000</v>
+        <v>504964000</v>
       </c>
       <c r="K14">
-        <v>85830000</v>
+        <v>99148000</v>
       </c>
       <c r="L14">
-        <v>-3061000</v>
+        <v>4056000</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1371000</v>
+        <v>-18828000</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>-27058000</v>
+        <v>-139694000</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -2660,73 +2654,73 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>64832000</v>
+        <v>27049000</v>
       </c>
       <c r="T14">
-        <v>548442000</v>
+        <v>616389000</v>
       </c>
       <c r="U14">
-        <v>-112999000</v>
+        <v>-190721000</v>
       </c>
       <c r="V14">
-        <v>-175487000</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>-361013000</v>
+        <v>-2899571000</v>
       </c>
       <c r="X14">
-        <v>357020000</v>
+        <v>2727249000</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-292479000</v>
+        <v>-363043000</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>74597000</v>
+        <v>31080000</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>-350151000</v>
       </c>
       <c r="AD14">
         <v>0</v>
       </c>
       <c r="AE14">
-        <v>-21215000</v>
+        <v>-6667000</v>
       </c>
       <c r="AF14">
-        <v>53382000</v>
+        <v>-325738000</v>
       </c>
       <c r="AG14">
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>309345000</v>
+        <v>-72392000</v>
       </c>
       <c r="AI14">
-        <v>825015000</v>
+        <v>222108000</v>
       </c>
       <c r="AJ14">
-        <v>515670000</v>
+        <v>294500000</v>
       </c>
       <c r="AK14">
-        <v>548442000</v>
+        <v>616389000</v>
       </c>
       <c r="AL14">
-        <v>-112999000</v>
+        <v>-190721000</v>
       </c>
       <c r="AM14">
-        <v>435443000</v>
+        <v>425668000</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AO14" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -2734,124 +2728,124 @@
         <v>54</v>
       </c>
       <c r="B15" s="2">
-        <v>38409</v>
+        <v>38773</v>
       </c>
       <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
         <v>72</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>73</v>
       </c>
-      <c r="E15" t="s">
-        <v>74</v>
-      </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I15" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J15">
-        <v>504964000</v>
+        <v>572847000</v>
       </c>
       <c r="K15">
-        <v>99148000</v>
+        <v>114283000</v>
       </c>
       <c r="L15">
-        <v>4056000</v>
+        <v>-25874000</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>-18828000</v>
+        <v>-47271000</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>-139694000</v>
+        <v>-149692000</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>29695000</v>
       </c>
       <c r="S15">
-        <v>27049000</v>
+        <v>46450000</v>
       </c>
       <c r="T15">
-        <v>616389000</v>
+        <v>660435000</v>
       </c>
       <c r="U15">
-        <v>-190721000</v>
+        <v>-220394000</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15">
-        <v>-2899571000</v>
+        <v>-1967191000</v>
       </c>
       <c r="X15">
-        <v>2727249000</v>
+        <v>2120015000</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-363043000</v>
+        <v>-67570000</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>31080000</v>
+        <v>34953000</v>
       </c>
       <c r="AC15">
-        <v>-350151000</v>
+        <v>-598244000</v>
       </c>
       <c r="AD15">
         <v>0</v>
       </c>
       <c r="AE15">
-        <v>-6667000</v>
+        <v>-3985000</v>
       </c>
       <c r="AF15">
-        <v>-325738000</v>
+        <v>-567276000</v>
       </c>
       <c r="AG15">
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>-72392000</v>
+        <v>25589000</v>
       </c>
       <c r="AI15">
+        <v>247697000</v>
+      </c>
+      <c r="AJ15">
         <v>222108000</v>
       </c>
-      <c r="AJ15">
-        <v>294500000</v>
-      </c>
       <c r="AK15">
-        <v>616389000</v>
+        <v>660435000</v>
       </c>
       <c r="AL15">
-        <v>-190721000</v>
+        <v>-220394000</v>
       </c>
       <c r="AM15">
-        <v>425668000</v>
+        <v>440041000</v>
       </c>
       <c r="AN15" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AO15" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -2859,124 +2853,124 @@
         <v>55</v>
       </c>
       <c r="B16" s="2">
-        <v>38773</v>
+        <v>39144</v>
       </c>
       <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
         <v>72</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>73</v>
       </c>
-      <c r="E16" t="s">
-        <v>74</v>
-      </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J16">
-        <v>572847000</v>
+        <v>594244000</v>
       </c>
       <c r="K16">
-        <v>114283000</v>
+        <v>136487000</v>
       </c>
       <c r="L16">
-        <v>-25874000</v>
+        <v>-87225000</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>-47271000</v>
+        <v>-89161000</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>-149692000</v>
+        <v>-204080000</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>29695000</v>
+        <v>18653000</v>
       </c>
       <c r="S16">
-        <v>46450000</v>
+        <v>59287000</v>
       </c>
       <c r="T16">
-        <v>660435000</v>
+        <v>613632000</v>
       </c>
       <c r="U16">
-        <v>-220394000</v>
+        <v>-317501000</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
       <c r="W16">
-        <v>-1967191000</v>
+        <v>-1567240000</v>
       </c>
       <c r="X16">
-        <v>2120015000</v>
+        <v>1487068000</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-67570000</v>
+        <v>-397673000</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>34953000</v>
+        <v>43393000</v>
       </c>
       <c r="AC16">
-        <v>-598244000</v>
+        <v>-301002000</v>
       </c>
       <c r="AD16">
         <v>0</v>
       </c>
       <c r="AE16">
-        <v>-3985000</v>
+        <v>7334000</v>
       </c>
       <c r="AF16">
-        <v>-567276000</v>
+        <v>-250275000</v>
       </c>
       <c r="AG16">
         <v>0</v>
       </c>
       <c r="AH16">
-        <v>25589000</v>
+        <v>-34316000</v>
       </c>
       <c r="AI16">
+        <v>213381000</v>
+      </c>
+      <c r="AJ16">
         <v>247697000</v>
       </c>
-      <c r="AJ16">
-        <v>222108000</v>
-      </c>
       <c r="AK16">
-        <v>660435000</v>
+        <v>613632000</v>
       </c>
       <c r="AL16">
-        <v>-220394000</v>
+        <v>-317501000</v>
       </c>
       <c r="AM16">
-        <v>440041000</v>
+        <v>296131000</v>
       </c>
       <c r="AN16" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AO16" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -2984,124 +2978,124 @@
         <v>56</v>
       </c>
       <c r="B17" s="2">
-        <v>39144</v>
+        <v>39508</v>
       </c>
       <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
         <v>72</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>73</v>
       </c>
-      <c r="E17" t="s">
-        <v>74</v>
-      </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I17" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J17">
-        <v>594244000</v>
+        <v>562808000</v>
       </c>
       <c r="K17">
-        <v>136487000</v>
+        <v>159308000</v>
       </c>
       <c r="L17">
-        <v>-87225000</v>
+        <v>2315000</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>-89161000</v>
+        <v>-156369000</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>-204080000</v>
+        <v>-96673000</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>18653000</v>
+        <v>-48899000</v>
       </c>
       <c r="S17">
-        <v>59287000</v>
+        <v>46474000</v>
       </c>
       <c r="T17">
-        <v>613632000</v>
+        <v>614536000</v>
       </c>
       <c r="U17">
-        <v>-317501000</v>
+        <v>-358210000</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>-85893000</v>
       </c>
       <c r="W17">
-        <v>-1567240000</v>
+        <v>-1495155000</v>
       </c>
       <c r="X17">
-        <v>1487068000</v>
+        <v>2040956000</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-397673000</v>
+        <v>101698000</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>43393000</v>
+        <v>22672000</v>
       </c>
       <c r="AC17">
-        <v>-301002000</v>
+        <v>-734193000</v>
       </c>
       <c r="AD17">
         <v>0</v>
       </c>
       <c r="AE17">
-        <v>7334000</v>
+        <v>5990000</v>
       </c>
       <c r="AF17">
-        <v>-250275000</v>
+        <v>-705531000</v>
       </c>
       <c r="AG17">
         <v>0</v>
       </c>
       <c r="AH17">
-        <v>-34316000</v>
+        <v>10703000</v>
       </c>
       <c r="AI17">
+        <v>224084000</v>
+      </c>
+      <c r="AJ17">
         <v>213381000</v>
       </c>
-      <c r="AJ17">
-        <v>247697000</v>
-      </c>
       <c r="AK17">
-        <v>613632000</v>
+        <v>614536000</v>
       </c>
       <c r="AL17">
-        <v>-317501000</v>
+        <v>-358210000</v>
       </c>
       <c r="AM17">
-        <v>296131000</v>
+        <v>256326000</v>
       </c>
       <c r="AN17" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AO17" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -3109,124 +3103,124 @@
         <v>57</v>
       </c>
       <c r="B18" s="2">
-        <v>39508</v>
+        <v>39872</v>
       </c>
       <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
         <v>72</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>73</v>
       </c>
-      <c r="E18" t="s">
-        <v>74</v>
-      </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J18">
-        <v>562808000</v>
+        <v>425123000</v>
       </c>
       <c r="K18">
-        <v>159308000</v>
+        <v>175601000</v>
       </c>
       <c r="L18">
-        <v>2315000</v>
+        <v>-22325000</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>-156369000</v>
+        <v>-37430000</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>-96673000</v>
+        <v>-25358000</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>-48899000</v>
+        <v>50805000</v>
       </c>
       <c r="S18">
-        <v>46474000</v>
+        <v>43001000</v>
       </c>
       <c r="T18">
-        <v>614536000</v>
+        <v>583970000</v>
       </c>
       <c r="U18">
-        <v>-358210000</v>
+        <v>-215859000</v>
       </c>
       <c r="V18">
-        <v>-85893000</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>-1495155000</v>
+        <v>-4786000</v>
       </c>
       <c r="X18">
-        <v>2040956000</v>
+        <v>107550000</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>101698000</v>
+        <v>-113095000</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>22672000</v>
+        <v>17650000</v>
       </c>
       <c r="AC18">
-        <v>-734193000</v>
+        <v>-48052000</v>
       </c>
       <c r="AD18">
         <v>0</v>
       </c>
       <c r="AE18">
-        <v>5990000</v>
+        <v>3652000</v>
       </c>
       <c r="AF18">
-        <v>-705531000</v>
+        <v>-26750000</v>
       </c>
       <c r="AG18">
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>10703000</v>
+        <v>444125000</v>
       </c>
       <c r="AI18">
+        <v>668209000</v>
+      </c>
+      <c r="AJ18">
         <v>224084000</v>
       </c>
-      <c r="AJ18">
-        <v>213381000</v>
-      </c>
       <c r="AK18">
-        <v>614536000</v>
+        <v>583970000</v>
       </c>
       <c r="AL18">
-        <v>-358210000</v>
+        <v>-215859000</v>
       </c>
       <c r="AM18">
-        <v>256326000</v>
+        <v>368111000</v>
       </c>
       <c r="AN18" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AO18" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -3234,124 +3228,124 @@
         <v>58</v>
       </c>
       <c r="B19" s="2">
-        <v>39872</v>
+        <v>40236</v>
       </c>
       <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
         <v>72</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>73</v>
       </c>
-      <c r="E19" t="s">
-        <v>74</v>
-      </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J19">
-        <v>425123000</v>
+        <v>600033000</v>
       </c>
       <c r="K19">
-        <v>175601000</v>
+        <v>184232000</v>
       </c>
       <c r="L19">
-        <v>-22325000</v>
+        <v>-22811000</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>44235000</v>
       </c>
       <c r="N19">
-        <v>-37430000</v>
+        <v>106109000</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>-25358000</v>
+        <v>-117364000</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>96279000</v>
       </c>
       <c r="R19">
-        <v>50805000</v>
+        <v>16016000</v>
       </c>
       <c r="S19">
-        <v>43001000</v>
+        <v>-6391000</v>
       </c>
       <c r="T19">
-        <v>583970000</v>
+        <v>905407000</v>
       </c>
       <c r="U19">
-        <v>-215859000</v>
+        <v>0</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19">
-        <v>-4786000</v>
+        <v>-403582000</v>
       </c>
       <c r="X19">
-        <v>107550000</v>
+        <v>68570000</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>-153680000</v>
       </c>
       <c r="Z19">
-        <v>-113095000</v>
+        <v>-488692000</v>
       </c>
       <c r="AA19">
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>17650000</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>-48052000</v>
+        <v>-94857000</v>
       </c>
       <c r="AD19">
         <v>0</v>
       </c>
       <c r="AE19">
-        <v>3652000</v>
+        <v>106033000</v>
       </c>
       <c r="AF19">
-        <v>-26750000</v>
+        <v>11176000</v>
       </c>
       <c r="AG19">
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>444125000</v>
+        <v>427891000</v>
       </c>
       <c r="AI19">
+        <v>1096100000</v>
+      </c>
+      <c r="AJ19">
         <v>668209000</v>
       </c>
-      <c r="AJ19">
-        <v>224084000</v>
-      </c>
       <c r="AK19">
-        <v>583970000</v>
+        <v>905407000</v>
       </c>
       <c r="AL19">
-        <v>-215859000</v>
+        <v>-153680000</v>
       </c>
       <c r="AM19">
-        <v>368111000</v>
+        <v>751727000</v>
       </c>
       <c r="AN19" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AO19" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:41">
@@ -3359,61 +3353,61 @@
         <v>59</v>
       </c>
       <c r="B20" s="2">
-        <v>40236</v>
+        <v>40600</v>
       </c>
       <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
         <v>72</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>73</v>
       </c>
-      <c r="E20" t="s">
-        <v>74</v>
-      </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J20">
-        <v>600033000</v>
+        <v>791333000</v>
       </c>
       <c r="K20">
-        <v>184232000</v>
+        <v>183820000</v>
       </c>
       <c r="L20">
-        <v>-22811000</v>
+        <v>-15988000</v>
       </c>
       <c r="M20">
-        <v>44235000</v>
+        <v>44276000</v>
       </c>
       <c r="N20">
-        <v>106109000</v>
+        <v>-10824000</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>-117364000</v>
+        <v>-209204000</v>
       </c>
       <c r="Q20">
-        <v>96279000</v>
+        <v>102307000</v>
       </c>
       <c r="R20">
-        <v>16016000</v>
+        <v>38287000</v>
       </c>
       <c r="S20">
-        <v>-6391000</v>
+        <v>-5210000</v>
       </c>
       <c r="T20">
-        <v>905407000</v>
+        <v>987407000</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -3422,16 +3416,16 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>-403582000</v>
+        <v>-1511555000</v>
       </c>
       <c r="X20">
-        <v>68570000</v>
+        <v>1354070000</v>
       </c>
       <c r="Y20">
-        <v>-153680000</v>
+        <v>-183474000</v>
       </c>
       <c r="Z20">
-        <v>-488692000</v>
+        <v>-340959000</v>
       </c>
       <c r="AA20">
         <v>0</v>
@@ -3440,43 +3434,43 @@
         <v>0</v>
       </c>
       <c r="AC20">
-        <v>-94857000</v>
+        <v>-687605000</v>
       </c>
       <c r="AD20">
         <v>0</v>
       </c>
       <c r="AE20">
-        <v>106033000</v>
+        <v>128644000</v>
       </c>
       <c r="AF20">
-        <v>11176000</v>
+        <v>-558961000</v>
       </c>
       <c r="AG20">
         <v>0</v>
       </c>
       <c r="AH20">
-        <v>427891000</v>
+        <v>87487000</v>
       </c>
       <c r="AI20">
+        <v>1183587000</v>
+      </c>
+      <c r="AJ20">
         <v>1096100000</v>
       </c>
-      <c r="AJ20">
-        <v>668209000</v>
-      </c>
       <c r="AK20">
-        <v>905407000</v>
+        <v>987407000</v>
       </c>
       <c r="AL20">
-        <v>-153680000</v>
+        <v>-183474000</v>
       </c>
       <c r="AM20">
-        <v>751727000</v>
+        <v>803933000</v>
       </c>
       <c r="AN20" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AO20" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:41">
@@ -3484,61 +3478,61 @@
         <v>60</v>
       </c>
       <c r="B21" s="2">
-        <v>40600</v>
+        <v>40964</v>
       </c>
       <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" t="s">
         <v>72</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>73</v>
       </c>
-      <c r="E21" t="s">
-        <v>74</v>
-      </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H21" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I21" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J21">
-        <v>791333000</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>183820000</v>
+        <v>183873000</v>
       </c>
       <c r="L21">
-        <v>-15988000</v>
+        <v>30238000</v>
       </c>
       <c r="M21">
-        <v>44276000</v>
+        <v>45223000</v>
       </c>
       <c r="N21">
-        <v>-10824000</v>
+        <v>-22028000</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>-209204000</v>
+        <v>-102983000</v>
       </c>
       <c r="Q21">
-        <v>102307000</v>
+        <v>31582000</v>
       </c>
       <c r="R21">
-        <v>38287000</v>
+        <v>25410000</v>
       </c>
       <c r="S21">
-        <v>-5210000</v>
+        <v>987978000</v>
       </c>
       <c r="T21">
-        <v>987407000</v>
+        <v>1225284000</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -3547,16 +3541,16 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>-1511555000</v>
+        <v>-1605851000</v>
       </c>
       <c r="X21">
-        <v>1354070000</v>
+        <v>1485225000</v>
       </c>
       <c r="Y21">
-        <v>-183474000</v>
+        <v>-243374000</v>
       </c>
       <c r="Z21">
-        <v>-340959000</v>
+        <v>-364000000</v>
       </c>
       <c r="AA21">
         <v>0</v>
@@ -3565,43 +3559,43 @@
         <v>0</v>
       </c>
       <c r="AC21">
-        <v>-687605000</v>
+        <v>-1217956000</v>
       </c>
       <c r="AD21">
         <v>0</v>
       </c>
       <c r="AE21">
-        <v>128644000</v>
+        <v>176251000</v>
       </c>
       <c r="AF21">
-        <v>-558961000</v>
+        <v>-1041705000</v>
       </c>
       <c r="AG21">
         <v>0</v>
       </c>
       <c r="AH21">
-        <v>87487000</v>
+        <v>-180421000</v>
       </c>
       <c r="AI21">
+        <v>1003166000</v>
+      </c>
+      <c r="AJ21">
         <v>1183587000</v>
       </c>
-      <c r="AJ21">
-        <v>1096100000</v>
-      </c>
       <c r="AK21">
-        <v>987407000</v>
+        <v>1225284000</v>
       </c>
       <c r="AL21">
-        <v>-183474000</v>
+        <v>-243374000</v>
       </c>
       <c r="AM21">
-        <v>803933000</v>
+        <v>981910000</v>
       </c>
       <c r="AN21" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AO21" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:41">
@@ -3609,124 +3603,124 @@
         <v>61</v>
       </c>
       <c r="B22" s="2">
-        <v>40964</v>
+        <v>41335</v>
       </c>
       <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
         <v>72</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>73</v>
       </c>
-      <c r="E22" t="s">
-        <v>74</v>
-      </c>
       <c r="F22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1037788000</v>
       </c>
       <c r="K22">
-        <v>183873000</v>
+        <v>194728000</v>
       </c>
       <c r="L22">
-        <v>30238000</v>
+        <v>17600000</v>
       </c>
       <c r="M22">
-        <v>45223000</v>
+        <v>47163000</v>
       </c>
       <c r="N22">
-        <v>-22028000</v>
+        <v>-118208000</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>-102983000</v>
+        <v>-198407000</v>
       </c>
       <c r="Q22">
-        <v>31582000</v>
+        <v>105251000</v>
       </c>
       <c r="R22">
-        <v>25410000</v>
+        <v>17350000</v>
       </c>
       <c r="S22">
-        <v>987978000</v>
+        <v>13919000</v>
       </c>
       <c r="T22">
-        <v>1225284000</v>
+        <v>1192990000</v>
       </c>
       <c r="U22">
         <v>0</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>-643098000</v>
       </c>
       <c r="W22">
-        <v>-1605851000</v>
+        <v>-730976000</v>
       </c>
       <c r="X22">
-        <v>1485225000</v>
+        <v>1062964000</v>
       </c>
       <c r="Y22">
-        <v>-243374000</v>
+        <v>-354682000</v>
       </c>
       <c r="Z22">
-        <v>-364000000</v>
+        <v>-665792000</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>-25511000</v>
       </c>
       <c r="AB22">
         <v>0</v>
       </c>
       <c r="AC22">
-        <v>-1217956000</v>
+        <v>-1001280000</v>
       </c>
       <c r="AD22">
         <v>0</v>
       </c>
       <c r="AE22">
-        <v>176251000</v>
+        <v>61398000</v>
       </c>
       <c r="AF22">
-        <v>-1041705000</v>
+        <v>-965393000</v>
       </c>
       <c r="AG22">
         <v>0</v>
       </c>
       <c r="AH22">
-        <v>-180421000</v>
+        <v>-438195000</v>
       </c>
       <c r="AI22">
+        <v>564971000</v>
+      </c>
+      <c r="AJ22">
         <v>1003166000</v>
       </c>
-      <c r="AJ22">
-        <v>1183587000</v>
-      </c>
       <c r="AK22">
-        <v>1225284000</v>
+        <v>1192990000</v>
       </c>
       <c r="AL22">
-        <v>-243374000</v>
+        <v>-354682000</v>
       </c>
       <c r="AM22">
-        <v>981910000</v>
+        <v>838308000</v>
       </c>
       <c r="AN22" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AO22" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:41">
@@ -3734,124 +3728,124 @@
         <v>62</v>
       </c>
       <c r="B23" s="2">
-        <v>41335</v>
+        <v>41699</v>
       </c>
       <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
         <v>72</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>73</v>
       </c>
-      <c r="E23" t="s">
-        <v>74</v>
-      </c>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H23" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I23" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J23">
-        <v>1037788000</v>
+        <v>1022290000</v>
       </c>
       <c r="K23">
-        <v>194728000</v>
+        <v>218809000</v>
       </c>
       <c r="L23">
-        <v>17600000</v>
+        <v>11841000</v>
       </c>
       <c r="M23">
-        <v>47163000</v>
+        <v>56244000</v>
       </c>
       <c r="N23">
-        <v>-118208000</v>
+        <v>62940000</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>-198407000</v>
+        <v>-112742000</v>
       </c>
       <c r="Q23">
-        <v>105251000</v>
+        <v>178132000</v>
       </c>
       <c r="R23">
-        <v>17350000</v>
+        <v>2983000</v>
       </c>
       <c r="S23">
-        <v>13919000</v>
+        <v>11062000</v>
       </c>
       <c r="T23">
-        <v>1192990000</v>
+        <v>1383186000</v>
       </c>
       <c r="U23">
         <v>0</v>
       </c>
       <c r="V23">
-        <v>-643098000</v>
+        <v>-3436000</v>
       </c>
       <c r="W23">
-        <v>-730976000</v>
+        <v>-1156634000</v>
       </c>
       <c r="X23">
-        <v>1062964000</v>
+        <v>1117500000</v>
       </c>
       <c r="Y23">
-        <v>-354682000</v>
+        <v>-317180000</v>
       </c>
       <c r="Z23">
-        <v>-665792000</v>
+        <v>-359750000</v>
       </c>
       <c r="AA23">
-        <v>-25511000</v>
+        <v>0</v>
       </c>
       <c r="AB23">
         <v>0</v>
       </c>
       <c r="AC23">
-        <v>-1001280000</v>
+        <v>-1283995000</v>
       </c>
       <c r="AD23">
         <v>0</v>
       </c>
       <c r="AE23">
-        <v>61398000</v>
+        <v>62104000</v>
       </c>
       <c r="AF23">
-        <v>-965393000</v>
+        <v>-1221891000</v>
       </c>
       <c r="AG23">
         <v>0</v>
       </c>
       <c r="AH23">
-        <v>-438195000</v>
+        <v>-198455000</v>
       </c>
       <c r="AI23">
+        <v>366516000</v>
+      </c>
+      <c r="AJ23">
         <v>564971000</v>
       </c>
-      <c r="AJ23">
-        <v>1003166000</v>
-      </c>
       <c r="AK23">
-        <v>1192990000</v>
+        <v>1383186000</v>
       </c>
       <c r="AL23">
-        <v>-354682000</v>
+        <v>-317180000</v>
       </c>
       <c r="AM23">
-        <v>838308000</v>
+        <v>1066006000</v>
       </c>
       <c r="AN23" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AO23" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:41">
@@ -3859,79 +3853,79 @@
         <v>63</v>
       </c>
       <c r="B24" s="2">
-        <v>41699</v>
+        <v>42063</v>
       </c>
       <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" t="s">
         <v>72</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>73</v>
       </c>
-      <c r="E24" t="s">
-        <v>74</v>
-      </c>
       <c r="F24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J24">
-        <v>1022290000</v>
+        <v>957474000</v>
       </c>
       <c r="K24">
-        <v>218809000</v>
+        <v>239193000</v>
       </c>
       <c r="L24">
-        <v>11841000</v>
+        <v>-22295000</v>
       </c>
       <c r="M24">
-        <v>56244000</v>
+        <v>66539000</v>
       </c>
       <c r="N24">
-        <v>62940000</v>
+        <v>-59505000</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>-112742000</v>
+        <v>-161506000</v>
       </c>
       <c r="Q24">
-        <v>178132000</v>
+        <v>44563000</v>
       </c>
       <c r="R24">
-        <v>2983000</v>
+        <v>3428000</v>
       </c>
       <c r="S24">
-        <v>11062000</v>
+        <v>4442000</v>
       </c>
       <c r="T24">
-        <v>1383186000</v>
+        <v>1185848000</v>
       </c>
       <c r="U24">
         <v>0</v>
       </c>
       <c r="V24">
-        <v>-3436000</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>-1156634000</v>
+        <v>-298094000</v>
       </c>
       <c r="X24">
-        <v>1117500000</v>
+        <v>677500000</v>
       </c>
       <c r="Y24">
-        <v>-317180000</v>
+        <v>-330637000</v>
       </c>
       <c r="Z24">
-        <v>-359750000</v>
+        <v>48769000</v>
       </c>
       <c r="AA24">
         <v>0</v>
@@ -3940,43 +3934,43 @@
         <v>0</v>
       </c>
       <c r="AC24">
-        <v>-1283995000</v>
+        <v>-2250597000</v>
       </c>
       <c r="AD24">
         <v>0</v>
       </c>
       <c r="AE24">
-        <v>62104000</v>
+        <v>1538307000</v>
       </c>
       <c r="AF24">
-        <v>-1221891000</v>
+        <v>-712290000</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>-13269000</v>
       </c>
       <c r="AH24">
-        <v>-198455000</v>
+        <v>509058000</v>
       </c>
       <c r="AI24">
+        <v>875574000</v>
+      </c>
+      <c r="AJ24">
         <v>366516000</v>
       </c>
-      <c r="AJ24">
-        <v>564971000</v>
-      </c>
       <c r="AK24">
-        <v>1383186000</v>
+        <v>1185848000</v>
       </c>
       <c r="AL24">
-        <v>-317180000</v>
+        <v>-330637000</v>
       </c>
       <c r="AM24">
-        <v>1066006000</v>
+        <v>855211000</v>
       </c>
       <c r="AN24" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AO24" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:41">
@@ -3984,61 +3978,61 @@
         <v>64</v>
       </c>
       <c r="B25" s="2">
-        <v>42063</v>
+        <v>42427</v>
       </c>
       <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
         <v>72</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>73</v>
       </c>
-      <c r="E25" t="s">
-        <v>74</v>
-      </c>
       <c r="F25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I25" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J25">
-        <v>957474000</v>
+        <v>841489000</v>
       </c>
       <c r="K25">
-        <v>239193000</v>
+        <v>273947000</v>
       </c>
       <c r="L25">
-        <v>-22295000</v>
+        <v>56997000</v>
       </c>
       <c r="M25">
-        <v>66539000</v>
+        <v>66965000</v>
       </c>
       <c r="N25">
-        <v>-59505000</v>
+        <v>-217242000</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>-161506000</v>
+        <v>-121748000</v>
       </c>
       <c r="Q25">
-        <v>44563000</v>
+        <v>-48148000</v>
       </c>
       <c r="R25">
-        <v>3428000</v>
+        <v>15213000</v>
       </c>
       <c r="S25">
-        <v>4442000</v>
+        <v>-9972000</v>
       </c>
       <c r="T25">
-        <v>1185848000</v>
+        <v>1012184000</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -4047,16 +4041,16 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>-298094000</v>
+        <v>-103017000</v>
       </c>
       <c r="X25">
-        <v>677500000</v>
+        <v>155780000</v>
       </c>
       <c r="Y25">
-        <v>-330637000</v>
+        <v>-328395000</v>
       </c>
       <c r="Z25">
-        <v>48769000</v>
+        <v>-275632000</v>
       </c>
       <c r="AA25">
         <v>0</v>
@@ -4065,43 +4059,43 @@
         <v>0</v>
       </c>
       <c r="AC25">
-        <v>-2250597000</v>
+        <v>-1100585000</v>
       </c>
       <c r="AD25">
         <v>0</v>
       </c>
       <c r="AE25">
-        <v>1538307000</v>
+        <v>11833000</v>
       </c>
       <c r="AF25">
-        <v>-712290000</v>
+        <v>-1088752000</v>
       </c>
       <c r="AG25">
-        <v>-13269000</v>
+        <v>-7801000</v>
       </c>
       <c r="AH25">
-        <v>509058000</v>
+        <v>-360001000</v>
       </c>
       <c r="AI25">
+        <v>515573000</v>
+      </c>
+      <c r="AJ25">
         <v>875574000</v>
       </c>
-      <c r="AJ25">
-        <v>366516000</v>
-      </c>
       <c r="AK25">
-        <v>1185848000</v>
+        <v>1012184000</v>
       </c>
       <c r="AL25">
-        <v>-330637000</v>
+        <v>-328395000</v>
       </c>
       <c r="AM25">
-        <v>855211000</v>
+        <v>683789000</v>
       </c>
       <c r="AN25" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AO25" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:41">
@@ -4109,79 +4103,79 @@
         <v>65</v>
       </c>
       <c r="B26" s="2">
-        <v>42427</v>
+        <v>42791</v>
       </c>
       <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
         <v>72</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>73</v>
       </c>
-      <c r="E26" t="s">
-        <v>74</v>
-      </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H26" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I26" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J26">
-        <v>841489000</v>
+        <v>685108000</v>
       </c>
       <c r="K26">
-        <v>273947000</v>
+        <v>290914000</v>
       </c>
       <c r="L26">
-        <v>56997000</v>
+        <v>24878000</v>
       </c>
       <c r="M26">
-        <v>66965000</v>
+        <v>71911000</v>
       </c>
       <c r="N26">
-        <v>-217242000</v>
+        <v>-28508000</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26">
-        <v>-121748000</v>
+        <v>-38493000</v>
       </c>
       <c r="Q26">
-        <v>-48148000</v>
+        <v>49458000</v>
       </c>
       <c r="R26">
-        <v>15213000</v>
+        <v>17754000</v>
       </c>
       <c r="S26">
-        <v>-9972000</v>
+        <v>-2515000</v>
       </c>
       <c r="T26">
-        <v>1012184000</v>
+        <v>1041788000</v>
       </c>
       <c r="U26">
         <v>0</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>-204595000</v>
       </c>
       <c r="W26">
-        <v>-103017000</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>155780000</v>
+        <v>86240000</v>
       </c>
       <c r="Y26">
-        <v>-328395000</v>
+        <v>-373574000</v>
       </c>
       <c r="Z26">
-        <v>-275632000</v>
+        <v>-491929000</v>
       </c>
       <c r="AA26">
         <v>0</v>
@@ -4190,43 +4184,43 @@
         <v>0</v>
       </c>
       <c r="AC26">
-        <v>-1100585000</v>
+        <v>-547022000</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>-55612000</v>
       </c>
       <c r="AE26">
-        <v>11833000</v>
+        <v>21907000</v>
       </c>
       <c r="AF26">
-        <v>-1088752000</v>
+        <v>-580727000</v>
       </c>
       <c r="AG26">
-        <v>-7801000</v>
+        <v>3624000</v>
       </c>
       <c r="AH26">
-        <v>-360001000</v>
+        <v>-27244000</v>
       </c>
       <c r="AI26">
+        <v>488329000</v>
+      </c>
+      <c r="AJ26">
         <v>515573000</v>
       </c>
-      <c r="AJ26">
-        <v>875574000</v>
-      </c>
       <c r="AK26">
-        <v>1012184000</v>
+        <v>1041788000</v>
       </c>
       <c r="AL26">
-        <v>-328395000</v>
+        <v>-373574000</v>
       </c>
       <c r="AM26">
-        <v>683789000</v>
+        <v>668214000</v>
       </c>
       <c r="AN26" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AO26" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:41">
@@ -4234,79 +4228,79 @@
         <v>66</v>
       </c>
       <c r="B27" s="2">
-        <v>42791</v>
+        <v>43162</v>
       </c>
       <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
         <v>72</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>73</v>
       </c>
-      <c r="E27" t="s">
-        <v>74</v>
-      </c>
       <c r="F27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H27" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I27" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J27">
-        <v>685108000</v>
+        <v>424858000</v>
       </c>
       <c r="K27">
-        <v>290914000</v>
+        <v>313107000</v>
       </c>
       <c r="L27">
-        <v>24878000</v>
+        <v>175351000</v>
       </c>
       <c r="M27">
-        <v>71911000</v>
+        <v>70510000</v>
       </c>
       <c r="N27">
-        <v>-28508000</v>
+        <v>-124068000</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
       <c r="P27">
-        <v>-38493000</v>
+        <v>176672000</v>
       </c>
       <c r="Q27">
-        <v>49458000</v>
+        <v>13210000</v>
       </c>
       <c r="R27">
-        <v>17754000</v>
+        <v>-75251000</v>
       </c>
       <c r="S27">
-        <v>-2515000</v>
+        <v>-69000</v>
       </c>
       <c r="T27">
-        <v>1041788000</v>
+        <v>859689000</v>
       </c>
       <c r="U27">
         <v>0</v>
       </c>
       <c r="V27">
-        <v>-204595000</v>
+        <v>-6119000</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>-292500000</v>
       </c>
       <c r="X27">
-        <v>86240000</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>-373574000</v>
+        <v>-375793000</v>
       </c>
       <c r="Z27">
-        <v>-491929000</v>
+        <v>-674412000</v>
       </c>
       <c r="AA27">
         <v>0</v>
@@ -4315,43 +4309,43 @@
         <v>0</v>
       </c>
       <c r="AC27">
-        <v>-547022000</v>
+        <v>-252433000</v>
       </c>
       <c r="AD27">
-        <v>-55612000</v>
+        <v>-80877000</v>
       </c>
       <c r="AE27">
-        <v>21907000</v>
+        <v>9879000</v>
       </c>
       <c r="AF27">
-        <v>-580727000</v>
+        <v>-323431000</v>
       </c>
       <c r="AG27">
-        <v>3624000</v>
+        <v>-4035000</v>
       </c>
       <c r="AH27">
-        <v>-27244000</v>
+        <v>-142189000</v>
       </c>
       <c r="AI27">
+        <v>346140000</v>
+      </c>
+      <c r="AJ27">
         <v>488329000</v>
       </c>
-      <c r="AJ27">
-        <v>515573000</v>
-      </c>
       <c r="AK27">
-        <v>1041788000</v>
+        <v>859689000</v>
       </c>
       <c r="AL27">
-        <v>-373574000</v>
+        <v>-375793000</v>
       </c>
       <c r="AM27">
-        <v>668214000</v>
+        <v>483896000</v>
       </c>
       <c r="AN27" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AO27" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:41">
@@ -4359,124 +4353,124 @@
         <v>67</v>
       </c>
       <c r="B28" s="2">
-        <v>43162</v>
+        <v>43526</v>
       </c>
       <c r="C28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
         <v>72</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>73</v>
       </c>
-      <c r="E28" t="s">
-        <v>74</v>
-      </c>
       <c r="F28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H28" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I28" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J28">
-        <v>424858000</v>
+        <v>-137224000</v>
       </c>
       <c r="K28">
-        <v>313107000</v>
+        <v>338825000</v>
       </c>
       <c r="L28">
-        <v>175351000</v>
+        <v>-104089000</v>
       </c>
       <c r="M28">
-        <v>70510000</v>
+        <v>58514000</v>
       </c>
       <c r="N28">
-        <v>-124068000</v>
+        <v>283263000</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28">
-        <v>176672000</v>
+        <v>106928000</v>
       </c>
       <c r="Q28">
-        <v>13210000</v>
+        <v>-90657000</v>
       </c>
       <c r="R28">
-        <v>-75251000</v>
+        <v>-35918000</v>
       </c>
       <c r="S28">
-        <v>-69000</v>
+        <v>478989000</v>
       </c>
       <c r="T28">
-        <v>859689000</v>
+        <v>918278000</v>
       </c>
       <c r="U28">
         <v>0</v>
       </c>
       <c r="V28">
-        <v>-6119000</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>-292500000</v>
+        <v>-734424000</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>538925000</v>
       </c>
       <c r="Y28">
-        <v>-375793000</v>
+        <v>-314183000</v>
       </c>
       <c r="Z28">
-        <v>-674412000</v>
+        <v>-509682000</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>-4224000</v>
       </c>
       <c r="AB28">
         <v>0</v>
       </c>
       <c r="AC28">
-        <v>-252433000</v>
+        <v>-148073000</v>
       </c>
       <c r="AD28">
-        <v>-80877000</v>
+        <v>-86287000</v>
       </c>
       <c r="AE28">
-        <v>9879000</v>
+        <v>0</v>
       </c>
       <c r="AF28">
-        <v>-323431000</v>
+        <v>-238584000</v>
       </c>
       <c r="AG28">
-        <v>-4035000</v>
+        <v>-7181000</v>
       </c>
       <c r="AH28">
-        <v>-142189000</v>
+        <v>162831000</v>
       </c>
       <c r="AI28">
-        <v>346140000</v>
+        <v>529971000</v>
       </c>
       <c r="AJ28">
-        <v>488329000</v>
+        <v>367140000</v>
       </c>
       <c r="AK28">
-        <v>859689000</v>
+        <v>918278000</v>
       </c>
       <c r="AL28">
-        <v>-375793000</v>
+        <v>-325366000</v>
       </c>
       <c r="AM28">
-        <v>483896000</v>
+        <v>592912000</v>
       </c>
       <c r="AN28" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AO28" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:41">
@@ -4484,61 +4478,61 @@
         <v>68</v>
       </c>
       <c r="B29" s="2">
-        <v>43526</v>
+        <v>43890</v>
       </c>
       <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" t="s">
         <v>72</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>73</v>
       </c>
-      <c r="E29" t="s">
-        <v>74</v>
-      </c>
       <c r="F29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H29" t="s">
+        <v>161</v>
+      </c>
+      <c r="I29" t="s">
         <v>164</v>
       </c>
-      <c r="I29" t="s">
-        <v>168</v>
-      </c>
       <c r="J29">
-        <v>-137224000</v>
+        <v>-613816000</v>
       </c>
       <c r="K29">
-        <v>338825000</v>
+        <v>342511000</v>
       </c>
       <c r="L29">
-        <v>-104089000</v>
+        <v>-145543000</v>
       </c>
       <c r="M29">
-        <v>58514000</v>
+        <v>45676000</v>
       </c>
       <c r="N29">
-        <v>283263000</v>
+        <v>428976000</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29">
-        <v>106928000</v>
+        <v>506334000</v>
       </c>
       <c r="Q29">
-        <v>-90657000</v>
+        <v>-124206000</v>
       </c>
       <c r="R29">
-        <v>-35918000</v>
+        <v>-2899000</v>
       </c>
       <c r="S29">
-        <v>478989000</v>
+        <v>533137000</v>
       </c>
       <c r="T29">
-        <v>918278000</v>
+        <v>590941000</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -4547,61 +4541,61 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>-734424000</v>
+        <v>-443500000</v>
       </c>
       <c r="X29">
-        <v>538925000</v>
+        <v>545000000</v>
       </c>
       <c r="Y29">
-        <v>-314183000</v>
+        <v>-10124000</v>
       </c>
       <c r="Z29">
-        <v>-509682000</v>
+        <v>91376000</v>
       </c>
       <c r="AA29">
-        <v>-4224000</v>
+        <v>0</v>
       </c>
       <c r="AB29">
         <v>0</v>
       </c>
       <c r="AC29">
-        <v>-148073000</v>
+        <v>-99710000</v>
       </c>
       <c r="AD29">
-        <v>-86287000</v>
+        <v>-85482000</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>2346000</v>
       </c>
       <c r="AF29">
-        <v>-238584000</v>
+        <v>-182846000</v>
       </c>
       <c r="AG29">
-        <v>-7181000</v>
+        <v>-977000</v>
       </c>
       <c r="AH29">
-        <v>162831000</v>
+        <v>493679000</v>
       </c>
       <c r="AI29">
+        <v>1023650000</v>
+      </c>
+      <c r="AJ29">
         <v>529971000</v>
       </c>
-      <c r="AJ29">
-        <v>367140000</v>
-      </c>
       <c r="AK29">
-        <v>918278000</v>
+        <v>590941000</v>
       </c>
       <c r="AL29">
-        <v>-325366000</v>
+        <v>-277401000</v>
       </c>
       <c r="AM29">
-        <v>592912000</v>
+        <v>313540000</v>
       </c>
       <c r="AN29" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AO29" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:41">
@@ -4609,124 +4603,124 @@
         <v>69</v>
       </c>
       <c r="B30" s="2">
-        <v>43890</v>
+        <v>44254</v>
       </c>
       <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s">
         <v>72</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>73</v>
       </c>
-      <c r="E30" t="s">
-        <v>74</v>
-      </c>
       <c r="F30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H30" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I30" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J30">
-        <v>-613816000</v>
+        <v>-150773000</v>
       </c>
       <c r="K30">
-        <v>342511000</v>
+        <v>340912000</v>
       </c>
       <c r="L30">
-        <v>-145543000</v>
+        <v>148741000</v>
       </c>
       <c r="M30">
-        <v>45676000</v>
+        <v>31594000</v>
       </c>
       <c r="N30">
-        <v>428976000</v>
+        <v>-153335000</v>
       </c>
       <c r="O30">
         <v>0</v>
       </c>
       <c r="P30">
-        <v>506334000</v>
+        <v>64947000</v>
       </c>
       <c r="Q30">
-        <v>-124206000</v>
+        <v>168556000</v>
       </c>
       <c r="R30">
-        <v>-2899000</v>
+        <v>-32813000</v>
       </c>
       <c r="S30">
-        <v>533137000</v>
+        <v>50969000</v>
       </c>
       <c r="T30">
-        <v>590941000</v>
+        <v>268108000</v>
       </c>
       <c r="U30">
         <v>0</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>534457000</v>
       </c>
       <c r="W30">
-        <v>-443500000</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>545000000</v>
+        <v>386500000</v>
       </c>
       <c r="Y30">
-        <v>-10124000</v>
+        <v>-183077000</v>
       </c>
       <c r="Z30">
-        <v>91376000</v>
+        <v>737880000</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>-457827000</v>
       </c>
       <c r="AB30">
         <v>0</v>
       </c>
       <c r="AC30">
-        <v>-99710000</v>
+        <v>-380079000</v>
       </c>
       <c r="AD30">
-        <v>-85482000</v>
+        <v>-23108000</v>
       </c>
       <c r="AE30">
-        <v>2346000</v>
+        <v>228710000</v>
       </c>
       <c r="AF30">
-        <v>-182846000</v>
+        <v>-632304000</v>
       </c>
       <c r="AG30">
-        <v>-977000</v>
+        <v>5075000</v>
       </c>
       <c r="AH30">
-        <v>493679000</v>
+        <v>383574000</v>
       </c>
       <c r="AI30">
+        <v>1407224000</v>
+      </c>
+      <c r="AJ30">
         <v>1023650000</v>
       </c>
-      <c r="AJ30">
-        <v>529971000</v>
-      </c>
       <c r="AK30">
-        <v>590941000</v>
+        <v>268108000</v>
       </c>
       <c r="AL30">
-        <v>-277401000</v>
+        <v>-183077000</v>
       </c>
       <c r="AM30">
-        <v>313540000</v>
+        <v>85031000</v>
       </c>
       <c r="AN30" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AO30" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:41">
@@ -4734,297 +4728,172 @@
         <v>70</v>
       </c>
       <c r="B31" s="2">
-        <v>44254</v>
+        <v>44618</v>
       </c>
       <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" t="s">
         <v>72</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>73</v>
       </c>
-      <c r="E31" t="s">
-        <v>74</v>
-      </c>
       <c r="F31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H31" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I31" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J31">
-        <v>-150773000</v>
+        <v>-559623000</v>
       </c>
       <c r="K31">
-        <v>340912000</v>
+        <v>293626000</v>
       </c>
       <c r="L31">
-        <v>148741000</v>
+        <v>125711000</v>
       </c>
       <c r="M31">
-        <v>31594000</v>
+        <v>35061000</v>
       </c>
       <c r="N31">
-        <v>-153335000</v>
+        <v>76249000</v>
       </c>
       <c r="O31">
         <v>0</v>
       </c>
       <c r="P31">
-        <v>64947000</v>
+        <v>-53339000</v>
       </c>
       <c r="Q31">
-        <v>168556000</v>
+        <v>-132785000</v>
       </c>
       <c r="R31">
-        <v>-32813000</v>
+        <v>-14162000</v>
       </c>
       <c r="S31">
-        <v>50969000</v>
+        <v>46830000</v>
       </c>
       <c r="T31">
-        <v>268108000</v>
+        <v>17854000</v>
       </c>
       <c r="U31">
         <v>0</v>
       </c>
       <c r="V31">
-        <v>534457000</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>-29997000</v>
       </c>
       <c r="X31">
-        <v>386500000</v>
+        <v>30000000</v>
       </c>
       <c r="Y31">
-        <v>-183077000</v>
+        <v>-349185000</v>
       </c>
       <c r="Z31">
-        <v>737880000</v>
+        <v>-349182000</v>
       </c>
       <c r="AA31">
-        <v>-457827000</v>
+        <v>-12393000</v>
       </c>
       <c r="AB31">
         <v>0</v>
       </c>
       <c r="AC31">
-        <v>-380079000</v>
+        <v>-589433000</v>
       </c>
       <c r="AD31">
-        <v>-23108000</v>
+        <v>-749000</v>
       </c>
       <c r="AE31">
-        <v>228710000</v>
+        <v>-3443000</v>
       </c>
       <c r="AF31">
-        <v>-632304000</v>
+        <v>-606018000</v>
       </c>
       <c r="AG31">
-        <v>5075000</v>
+        <v>1006000</v>
       </c>
       <c r="AH31">
-        <v>383574000</v>
+        <v>-936340000</v>
       </c>
       <c r="AI31">
+        <v>470884000</v>
+      </c>
+      <c r="AJ31">
         <v>1407224000</v>
       </c>
-      <c r="AJ31">
-        <v>1023650000</v>
-      </c>
       <c r="AK31">
-        <v>268108000</v>
+        <v>17854000</v>
       </c>
       <c r="AL31">
-        <v>-183077000</v>
+        <v>-354185000</v>
       </c>
       <c r="AM31">
-        <v>85031000</v>
+        <v>-336331000</v>
       </c>
       <c r="AN31" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AO31" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="32" spans="1:41">
-      <c r="A32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="2">
-        <v>44618</v>
-      </c>
-      <c r="C32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G32" t="s">
-        <v>136</v>
-      </c>
-      <c r="H32" t="s">
-        <v>167</v>
-      </c>
-      <c r="I32" t="s">
-        <v>168</v>
-      </c>
-      <c r="J32">
-        <v>-559623000</v>
-      </c>
-      <c r="K32">
-        <v>293626000</v>
-      </c>
-      <c r="L32">
-        <v>125711000</v>
-      </c>
-      <c r="M32">
-        <v>35061000</v>
-      </c>
-      <c r="N32">
-        <v>76249000</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>-53339000</v>
-      </c>
-      <c r="Q32">
-        <v>-132785000</v>
-      </c>
-      <c r="R32">
-        <v>-14162000</v>
-      </c>
-      <c r="S32">
-        <v>46830000</v>
-      </c>
-      <c r="T32">
-        <v>17854000</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>-29997000</v>
-      </c>
-      <c r="X32">
-        <v>30000000</v>
-      </c>
-      <c r="Y32">
-        <v>-349185000</v>
-      </c>
-      <c r="Z32">
-        <v>-349182000</v>
-      </c>
-      <c r="AA32">
-        <v>-12393000</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>-589433000</v>
-      </c>
-      <c r="AD32">
-        <v>-749000</v>
-      </c>
-      <c r="AE32">
-        <v>-3443000</v>
-      </c>
-      <c r="AF32">
-        <v>-606018000</v>
-      </c>
-      <c r="AG32">
-        <v>1006000</v>
-      </c>
-      <c r="AH32">
-        <v>-936340000</v>
-      </c>
-      <c r="AI32">
-        <v>470884000</v>
-      </c>
-      <c r="AJ32">
-        <v>1407224000</v>
-      </c>
-      <c r="AK32">
-        <v>17854000</v>
-      </c>
-      <c r="AL32">
-        <v>-354185000</v>
-      </c>
-      <c r="AM32">
-        <v>-336331000</v>
-      </c>
-      <c r="AN32" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="AO32" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AN10" r:id="rId1"/>
-    <hyperlink ref="AO10" r:id="rId2"/>
-    <hyperlink ref="AN11" r:id="rId3"/>
-    <hyperlink ref="AO11" r:id="rId4"/>
-    <hyperlink ref="AN13" r:id="rId5"/>
-    <hyperlink ref="AO13" r:id="rId6"/>
-    <hyperlink ref="AN14" r:id="rId7"/>
-    <hyperlink ref="AO14" r:id="rId8"/>
-    <hyperlink ref="AN15" r:id="rId9"/>
-    <hyperlink ref="AO15" r:id="rId10"/>
-    <hyperlink ref="AN16" r:id="rId11"/>
-    <hyperlink ref="AO16" r:id="rId12"/>
-    <hyperlink ref="AN17" r:id="rId13"/>
-    <hyperlink ref="AO17" r:id="rId14"/>
-    <hyperlink ref="AN18" r:id="rId15"/>
-    <hyperlink ref="AO18" r:id="rId16"/>
-    <hyperlink ref="AN19" r:id="rId17"/>
-    <hyperlink ref="AO19" r:id="rId18"/>
-    <hyperlink ref="AN20" r:id="rId19"/>
-    <hyperlink ref="AO20" r:id="rId20"/>
-    <hyperlink ref="AN21" r:id="rId21"/>
-    <hyperlink ref="AO21" r:id="rId22"/>
-    <hyperlink ref="AN22" r:id="rId23"/>
-    <hyperlink ref="AO22" r:id="rId24"/>
-    <hyperlink ref="AN23" r:id="rId25"/>
-    <hyperlink ref="AO23" r:id="rId26"/>
-    <hyperlink ref="AN24" r:id="rId27"/>
-    <hyperlink ref="AO24" r:id="rId28"/>
-    <hyperlink ref="AN25" r:id="rId29"/>
-    <hyperlink ref="AO25" r:id="rId30"/>
-    <hyperlink ref="AN26" r:id="rId31"/>
-    <hyperlink ref="AO26" r:id="rId32"/>
-    <hyperlink ref="AN27" r:id="rId33"/>
-    <hyperlink ref="AO27" r:id="rId34"/>
-    <hyperlink ref="AN28" r:id="rId35"/>
-    <hyperlink ref="AO28" r:id="rId36"/>
-    <hyperlink ref="AN29" r:id="rId37"/>
-    <hyperlink ref="AO29" r:id="rId38"/>
-    <hyperlink ref="AN30" r:id="rId39"/>
-    <hyperlink ref="AO30" r:id="rId40"/>
-    <hyperlink ref="AN31" r:id="rId41"/>
-    <hyperlink ref="AO31" r:id="rId42"/>
-    <hyperlink ref="AN32" r:id="rId43"/>
-    <hyperlink ref="AO32" r:id="rId44"/>
+    <hyperlink ref="AN9" r:id="rId1"/>
+    <hyperlink ref="AO9" r:id="rId2"/>
+    <hyperlink ref="AN10" r:id="rId3"/>
+    <hyperlink ref="AO10" r:id="rId4"/>
+    <hyperlink ref="AN12" r:id="rId5"/>
+    <hyperlink ref="AO12" r:id="rId6"/>
+    <hyperlink ref="AN13" r:id="rId7"/>
+    <hyperlink ref="AO13" r:id="rId8"/>
+    <hyperlink ref="AN14" r:id="rId9"/>
+    <hyperlink ref="AO14" r:id="rId10"/>
+    <hyperlink ref="AN15" r:id="rId11"/>
+    <hyperlink ref="AO15" r:id="rId12"/>
+    <hyperlink ref="AN16" r:id="rId13"/>
+    <hyperlink ref="AO16" r:id="rId14"/>
+    <hyperlink ref="AN17" r:id="rId15"/>
+    <hyperlink ref="AO17" r:id="rId16"/>
+    <hyperlink ref="AN18" r:id="rId17"/>
+    <hyperlink ref="AO18" r:id="rId18"/>
+    <hyperlink ref="AN19" r:id="rId19"/>
+    <hyperlink ref="AO19" r:id="rId20"/>
+    <hyperlink ref="AN20" r:id="rId21"/>
+    <hyperlink ref="AO20" r:id="rId22"/>
+    <hyperlink ref="AN21" r:id="rId23"/>
+    <hyperlink ref="AO21" r:id="rId24"/>
+    <hyperlink ref="AN22" r:id="rId25"/>
+    <hyperlink ref="AO22" r:id="rId26"/>
+    <hyperlink ref="AN23" r:id="rId27"/>
+    <hyperlink ref="AO23" r:id="rId28"/>
+    <hyperlink ref="AN24" r:id="rId29"/>
+    <hyperlink ref="AO24" r:id="rId30"/>
+    <hyperlink ref="AN25" r:id="rId31"/>
+    <hyperlink ref="AO25" r:id="rId32"/>
+    <hyperlink ref="AN26" r:id="rId33"/>
+    <hyperlink ref="AO26" r:id="rId34"/>
+    <hyperlink ref="AN27" r:id="rId35"/>
+    <hyperlink ref="AO27" r:id="rId36"/>
+    <hyperlink ref="AN28" r:id="rId37"/>
+    <hyperlink ref="AO28" r:id="rId38"/>
+    <hyperlink ref="AN29" r:id="rId39"/>
+    <hyperlink ref="AO29" r:id="rId40"/>
+    <hyperlink ref="AN30" r:id="rId41"/>
+    <hyperlink ref="AO30" r:id="rId42"/>
+    <hyperlink ref="AN31" r:id="rId43"/>
+    <hyperlink ref="AO31" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
